--- a/2018elections/20180114-mnpoll-trump/builds/production/data/maindata_.xlsx
+++ b/2018elections/20180114-mnpoll-trump/builds/production/data/maindata_.xlsx
@@ -336,9 +336,6 @@
     <t>To date, do you think Special Counsel Robert Mueller’s investigation into possible collusion with Russia during the 2016 election has been fair and impartial, or do you think it has been unfair and biased against President Trump?</t>
   </si>
   <si>
-    <t>Not</t>
-  </si>
-  <si>
     <t>Did</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>Hennepin &amp; Ramsey</t>
+  </si>
+  <si>
+    <t>Not at all</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="158">
+  <cellStyleXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -637,6 +637,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -762,7 +782,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="158">
+  <cellStyles count="178">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -841,6 +861,16 @@
     <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -919,6 +949,16 @@
     <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="119" builtinId="5"/>
   </cellStyles>
@@ -1251,9 +1291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="A1:AB58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1380,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L2" s="3">
         <v>0</v>
@@ -1466,7 +1506,7 @@
         <v>0.23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L3" s="31">
         <v>0.26</v>
@@ -1531,7 +1571,7 @@
         <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>45</v>
@@ -1552,7 +1592,7 @@
         <v>0.21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L4" s="31">
         <v>0.14000000000000001</v>
@@ -1638,7 +1678,7 @@
         <v>0.16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L5" s="31">
         <v>0.36</v>
@@ -1724,7 +1764,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L6" s="31">
         <v>0.26</v>
@@ -1810,7 +1850,7 @@
         <v>0.3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L7" s="31">
         <v>0.3</v>
@@ -1896,7 +1936,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L8" s="31">
         <v>0.33</v>
@@ -1982,7 +2022,7 @@
         <v>0.19</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L9" s="31">
         <v>0.19</v>
@@ -2068,7 +2108,7 @@
         <v>0.2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L10" s="31">
         <v>0.18</v>
@@ -2154,7 +2194,7 @@
         <v>0.25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L11" s="31">
         <v>0.28999999999999998</v>
@@ -2240,7 +2280,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L12" s="31">
         <v>0.28999999999999998</v>
@@ -2326,7 +2366,7 @@
         <v>0.17</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L13" s="31">
         <v>0.25</v>
@@ -2412,7 +2452,7 @@
         <v>0.18</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L14" s="31">
         <v>0.3</v>
@@ -2498,7 +2538,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L15" s="31">
         <v>0.21</v>
@@ -2584,7 +2624,7 @@
         <v>0.06</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L16" s="31">
         <v>0.04</v>
@@ -2670,7 +2710,7 @@
         <v>0.36</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L17" s="31">
         <v>0.45</v>
@@ -2756,7 +2796,7 @@
         <v>0.27</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L18" s="31">
         <v>0.3</v>
@@ -2842,7 +2882,7 @@
         <v>0.25</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L19" s="31">
         <v>0.24</v>
@@ -2928,7 +2968,7 @@
         <v>0.21</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="L20" s="31">
         <v>0.28000000000000003</v>
@@ -2996,13 +3036,13 @@
         <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -3082,13 +3122,13 @@
         <v>31</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="31">
         <v>0.43</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H22" s="31">
         <v>0.44</v>
@@ -3165,16 +3205,16 @@
         <v>102</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="31">
         <v>0.56999999999999995</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="31">
         <v>0.26</v>
@@ -3254,13 +3294,13 @@
         <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="31">
         <v>0.45</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24" s="31">
         <v>0.46</v>
@@ -3340,13 +3380,13 @@
         <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F25" s="31">
         <v>0.33</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H25" s="31">
         <v>0.52</v>
@@ -3426,13 +3466,13 @@
         <v>49</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="31">
         <v>0.28000000000000003</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H26" s="31">
         <v>0.62</v>
@@ -3512,13 +3552,13 @@
         <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="31">
         <v>0.35</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H27" s="31">
         <v>0.55000000000000004</v>
@@ -3598,13 +3638,13 @@
         <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F28" s="31">
         <v>0.51</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H28" s="31">
         <v>0.33</v>
@@ -3684,13 +3724,13 @@
         <v>36</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F29" s="31">
         <v>0.52</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="31">
         <v>0.33</v>
@@ -3770,13 +3810,13 @@
         <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="31">
         <v>0.44</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H30" s="31">
         <v>0.44</v>
@@ -3856,13 +3896,13 @@
         <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31" s="31">
         <v>0.35</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H31" s="31">
         <v>0.49</v>
@@ -3942,13 +3982,13 @@
         <v>39</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="31">
         <v>0.44</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H32" s="31">
         <v>0.47</v>
@@ -4028,13 +4068,13 @@
         <v>40</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F33" s="31">
         <v>0.43</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H33" s="31">
         <v>0.44</v>
@@ -4114,13 +4154,13 @@
         <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" s="31">
         <v>0.43</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H34" s="31">
         <v>0.43</v>
@@ -4200,13 +4240,13 @@
         <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="31">
         <v>0.83</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H35" s="31">
         <v>0.13</v>
@@ -4286,13 +4326,13 @@
         <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="31">
         <v>0.11</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H36" s="31">
         <v>0.77</v>
@@ -4372,13 +4412,13 @@
         <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="31">
         <v>0.33</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H37" s="31">
         <v>0.43</v>
@@ -4458,13 +4498,13 @@
         <v>100</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="31">
         <v>0.4</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H38" s="31">
         <v>0.5</v>
@@ -4544,13 +4584,13 @@
         <v>101</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" s="31">
         <v>0.46</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H39" s="31">
         <v>0.38</v>
@@ -4630,13 +4670,13 @@
         <v>28</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -4716,13 +4756,13 @@
         <v>31</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" s="31">
         <v>0.51</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H41" s="31">
         <v>0.33</v>
@@ -4799,16 +4839,16 @@
         <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="31">
         <v>0.6</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H42" s="31">
         <v>0.2</v>
@@ -4888,13 +4928,13 @@
         <v>33</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="31">
         <v>0.53</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H43" s="31">
         <v>0.34</v>
@@ -4974,13 +5014,13 @@
         <v>48</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" s="31">
         <v>0.45</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H44" s="31">
         <v>0.37</v>
@@ -5060,13 +5100,13 @@
         <v>49</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F45" s="31">
         <v>0.42</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H45" s="31">
         <v>0.48</v>
@@ -5146,13 +5186,13 @@
         <v>34</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" s="31">
         <v>0.45</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H46" s="31">
         <v>0.42</v>
@@ -5232,13 +5272,13 @@
         <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47" s="31">
         <v>0.56999999999999995</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H47" s="31">
         <v>0.25</v>
@@ -5318,13 +5358,13 @@
         <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" s="31">
         <v>0.55000000000000004</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H48" s="31">
         <v>0.23</v>
@@ -5404,13 +5444,13 @@
         <v>37</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="31">
         <v>0.56000000000000005</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H49" s="31">
         <v>0.28000000000000003</v>
@@ -5490,13 +5530,13 @@
         <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="31">
         <v>0.45</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H50" s="31">
         <v>0.42</v>
@@ -5576,13 +5616,13 @@
         <v>39</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F51" s="31">
         <v>0.5</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H51" s="31">
         <v>0.35</v>
@@ -5662,13 +5702,13 @@
         <v>40</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" s="31">
         <v>0.49</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H52" s="31">
         <v>0.36</v>
@@ -5748,13 +5788,13 @@
         <v>41</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F53" s="31">
         <v>0.54</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H53" s="31">
         <v>0.3</v>
@@ -5834,13 +5874,13 @@
         <v>42</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F54" s="31">
         <v>0.89</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H54" s="31">
         <v>0.04</v>
@@ -5920,13 +5960,13 @@
         <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" s="31">
         <v>0.16</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H55" s="31">
         <v>0.63</v>
@@ -6006,13 +6046,13 @@
         <v>44</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F56" s="31">
         <v>0.48</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H56" s="31">
         <v>0.33</v>
@@ -6092,13 +6132,13 @@
         <v>100</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F57" s="31">
         <v>0.44</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H57" s="31">
         <v>0.4</v>
@@ -6178,13 +6218,13 @@
         <v>101</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" s="31">
         <v>0.59</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H58" s="31">
         <v>0.25</v>
@@ -6282,7 +6322,7 @@
     </row>
     <row r="2" spans="1:6" ht="18">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14">
@@ -6294,24 +6334,24 @@
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="24">
         <v>0.33</v>
@@ -6334,19 +6374,19 @@
         <v>50</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15">
@@ -6406,7 +6446,7 @@
         <v>0.26</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15">
@@ -6431,22 +6471,22 @@
     </row>
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15">
@@ -6491,22 +6531,22 @@
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="E15" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15">
@@ -6594,19 +6634,19 @@
         <v>55</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="E20" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15">
@@ -6646,7 +6686,7 @@
         <v>0.21</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15">
@@ -6654,24 +6694,24 @@
         <v>58</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="E23" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="F23" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15">
       <c r="A24" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="24">
         <v>0.66</v>
@@ -6731,22 +6771,22 @@
     </row>
     <row r="27" spans="1:6" ht="15">
       <c r="A27" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="E27" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="F27" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15">
@@ -6786,12 +6826,12 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18">
       <c r="A31" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16">
@@ -6800,18 +6840,18 @@
     <row r="33" spans="1:4" ht="15">
       <c r="A33" s="18"/>
       <c r="B33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="D33" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15">
       <c r="A34" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="12">
         <v>0.43</v>
@@ -6828,13 +6868,13 @@
         <v>50</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="D35" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15">
@@ -6895,16 +6935,16 @@
     </row>
     <row r="40" spans="1:4" ht="15">
       <c r="A40" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15">
@@ -6937,16 +6977,16 @@
     </row>
     <row r="43" spans="1:4" ht="15">
       <c r="A43" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="D43" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15">
@@ -7010,13 +7050,13 @@
         <v>55</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="D48" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15">
@@ -7052,13 +7092,13 @@
         <v>58</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="D51" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15">
@@ -7105,16 +7145,16 @@
     </row>
     <row r="55" spans="1:4" ht="15">
       <c r="A55" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="D55" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15">
@@ -7150,24 +7190,24 @@
     </row>
     <row r="60" spans="1:4" ht="16">
       <c r="A60" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15">
       <c r="A61" s="18"/>
       <c r="B61" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="D61" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15">
       <c r="A62" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="12">
         <v>0.51</v>
@@ -7184,13 +7224,13 @@
         <v>50</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="D63" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15">
@@ -7251,16 +7291,16 @@
     </row>
     <row r="68" spans="1:4" ht="15">
       <c r="A68" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="D68" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15">
@@ -7293,16 +7333,16 @@
     </row>
     <row r="71" spans="1:4" ht="15">
       <c r="A71" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="D71" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15">
@@ -7366,13 +7406,13 @@
         <v>55</v>
       </c>
       <c r="B76" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="D76" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15">
@@ -7408,13 +7448,13 @@
         <v>58</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="D79" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15">
@@ -7461,16 +7501,16 @@
     </row>
     <row r="83" spans="1:4" ht="15">
       <c r="A83" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="D83" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15">
